--- a/info/metricas/NN/RELU/NN6.xlsx
+++ b/info/metricas/NN/RELU/NN6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7807684122440102</v>
+        <v>0.8033697036975757</v>
       </c>
       <c r="C2" t="n">
-        <v>81658.25269052602</v>
+        <v>71893.68333831783</v>
       </c>
       <c r="D2" t="n">
-        <v>181.9138854363314</v>
+        <v>174.5588948588368</v>
       </c>
       <c r="E2" t="n">
-        <v>110.7096252441406</v>
+        <v>103.9029190063477</v>
       </c>
       <c r="F2" t="n">
-        <v>4623705.226135234</v>
+        <v>887457.4214623261</v>
       </c>
       <c r="G2" t="n">
-        <v>2723.55689453125</v>
+        <v>1966.270751953125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7814907950817066</v>
+        <v>0.8033848710341672</v>
       </c>
       <c r="I2" t="n">
-        <v>5.315257527718764e+16</v>
+        <v>5.379232283830239e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>-574454.2941081405</v>
+        <v>-140532.4278087232</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7776793035989642</v>
+        <v>0.7643482377563304</v>
       </c>
       <c r="C3" t="n">
-        <v>82500.7649328414</v>
+        <v>84174.45882118466</v>
       </c>
       <c r="D3" t="n">
-        <v>184.8271534628635</v>
+        <v>182.3048201635257</v>
       </c>
       <c r="E3" t="n">
-        <v>115.9120446777344</v>
+        <v>111.7818835449219</v>
       </c>
       <c r="F3" t="n">
-        <v>4697751.759565601</v>
+        <v>926837.7057113647</v>
       </c>
       <c r="G3" t="n">
-        <v>3644.630771484375</v>
+        <v>3089.373046875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7777681216431772</v>
+        <v>0.764499340062085</v>
       </c>
       <c r="I3" t="n">
-        <v>5.325636805082786e+16</v>
+        <v>5.760288125180289e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-681842.2463792653</v>
+        <v>-138696.6686092616</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7696182314305848</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87450.7117792854</v>
+      </c>
+      <c r="D4" t="n">
+        <v>186.0869047067599</v>
+      </c>
+      <c r="E4" t="n">
+        <v>112.3625427246094</v>
+      </c>
+      <c r="F4" t="n">
+        <v>946065.8235291671</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2860.018779296875</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.769644647423514</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.077549810503085e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-138766.5197768815</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8005281695617188</v>
+      </c>
+      <c r="C5" t="n">
+        <v>77478.30293290173</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178.6885066024456</v>
+      </c>
+      <c r="E5" t="n">
+        <v>105.2152551269531</v>
+      </c>
+      <c r="F5" t="n">
+        <v>908452.3675668335</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2467.992783203125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8005307355221705</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.933823039524795e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-141232.5405165936</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8159394384069463</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68609.08797466572</v>
+      </c>
+      <c r="D6" t="n">
+        <v>173.2286523879665</v>
+      </c>
+      <c r="E6" t="n">
+        <v>104.2755493164062</v>
+      </c>
+      <c r="F6" t="n">
+        <v>880521.2400880336</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1777.9755859375</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8160025938632361</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.979387267276807e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-94799.46457848477</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8008705899982654</v>
+      </c>
+      <c r="C7" t="n">
+        <v>75212.15892838255</v>
+      </c>
+      <c r="D7" t="n">
+        <v>179.9231250963243</v>
+      </c>
+      <c r="E7" t="n">
+        <v>109.5912329101562</v>
+      </c>
+      <c r="F7" t="n">
+        <v>914549.2448646164</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1936.391723632812</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8010076464417514</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.133989540466143e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-133744.819654815</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7920050814753505</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78729.47259096242</v>
+      </c>
+      <c r="D8" t="n">
+        <v>181.9744139971856</v>
+      </c>
+      <c r="E8" t="n">
+        <v>108.9313439941406</v>
+      </c>
+      <c r="F8" t="n">
+        <v>924975.9463476944</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1997.241821289062</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7920137777067989</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.184684028169201e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-122145.2070668843</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7817348529729057</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81723.27461443967</v>
+      </c>
+      <c r="D9" t="n">
+        <v>180.7389854085443</v>
+      </c>
+      <c r="E9" t="n">
+        <v>106.2932241821289</v>
+      </c>
+      <c r="F9" t="n">
+        <v>918696.2628316307</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3789.606357421875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.781818155695907</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.942492721658362e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-147836.4499166936</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU6</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7995074482997192</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71207.8644082995</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.4740499001592</v>
+      </c>
+      <c r="E10" t="n">
+        <v>105.1809985351563</v>
+      </c>
+      <c r="F10" t="n">
+        <v>886851.5956425094</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2047.16259765625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7996897545541529</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.677352736275075e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-122665.684910863</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.76027056353834</v>
+      </c>
+      <c r="C11" t="n">
+        <v>88184.99983154617</v>
+      </c>
+      <c r="D11" t="n">
+        <v>189.6035129426104</v>
+      </c>
+      <c r="E11" t="n">
+        <v>115.0669067382812</v>
+      </c>
+      <c r="F11" t="n">
+        <v>963754.6562872886</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2645.46875</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.760295592033601</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.109699789488294e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-138610.8093085885</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU6</t>
         </is>
